--- a/annexe/Documentation API.xlsx
+++ b/annexe/Documentation API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIITSCHY\DEV\Projet 7\Groupomania\Site\annexe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DF6998-350D-483D-931F-B10DA7A31F90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C229D40C-0D00-48FB-B234-251C1FD09211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="53">
   <si>
     <t>Verb</t>
   </si>
@@ -2753,14 +2753,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CA63B0-5CB0-4A22-9658-45308F0E7DFF}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" customWidth="1"/>
     <col min="4" max="4" width="48.28515625" customWidth="1"/>
     <col min="5" max="5" width="69" customWidth="1"/>
@@ -2824,9 +2824,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
@@ -2834,7 +2832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2858,9 +2856,7 @@
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2885,16 +2881,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
@@ -2943,9 +2937,7 @@
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
@@ -2960,9 +2952,7 @@
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
@@ -2977,9 +2967,7 @@
       <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
         <v>39</v>
       </c>
@@ -2994,9 +2982,7 @@
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
         <v>39</v>
       </c>
@@ -3011,9 +2997,7 @@
       <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
         <v>39</v>
       </c>
@@ -3028,9 +3012,7 @@
       <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
@@ -3045,9 +3027,7 @@
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
         <v>42</v>
       </c>
@@ -3057,5 +3037,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/annexe/Documentation API.xlsx
+++ b/annexe/Documentation API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIITSCHY\DEV\Projet 7\Groupomania\Site\annexe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C229D40C-0D00-48FB-B234-251C1FD09211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4630FE8-2B22-42FB-AF6F-F5E2288AA491}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2753,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CA63B0-5CB0-4A22-9658-45308F0E7DFF}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/annexe/Documentation API.xlsx
+++ b/annexe/Documentation API.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIITSCHY\DEV\Projet 7\Groupomania\Site\annexe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4630FE8-2B22-42FB-AF6F-F5E2288AA491}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4390BC-8389-4FCB-B5DA-A80C88C3D76D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
   <si>
     <t>Verb</t>
   </si>
@@ -1914,6 +1914,389 @@
       <t>:  string
 }</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  string
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Renvoi les informations des 10 publications les plus aimées ainsi que le nombre total de publications.</t>
+  </si>
+  <si>
+    <t>Chiffre le mot de passe de l'utilisateur, ajoute l'utilisateur à la base de données, et renvoyant un jeton Web JSON signé (contenant l'identifiant userID et le niveau d'acces minimum (0)).</t>
+  </si>
+  <si>
+    <t>Vérifie les informations d'identification de l'utilisateur, en renvoyant un jeton Web JSON signé (contenant l'identifiant userID et le niveau d'acces).</t>
+  </si>
+  <si>
+    <t>Capture et analyse l'image (non obligatoire), enregistrement de la publication dans la base de données, en définissant correctement son image URL.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[{
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationCreateByUserId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationCreateByUserNom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string ou null,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationCreateByUserPrenom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string null,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationCreationDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: date,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationTitre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationDescription</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationImageUrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationLikeCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationDislikeCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationCommentCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userVote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre ou null
+}],
+[{
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COUNT(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: nombre
+}]]</t>
+    </r>
+  </si>
+  <si>
+    <t>Renvoi les informations des 10 publications en fonction de la page transmise, ainsi que le nombre total de publications dans la base données, ce nombre sera utilisé côté front pour définir le nombre de pages.</t>
+  </si>
+  <si>
+    <t>Renvoi les informations des 10 publications les plus récentes en fonction de la page transmise, ainsi que le nombre total de publications dans la base données, ce nombre sera utilisé côté front pour définir le nombre de pages.</t>
+  </si>
+  <si>
+    <t>Renvoi les informations des 10 publications les plus commentées en fonction de la page transmise, ainsi que le nombre total de publications dans la base données, ce nombre sera utilisé côté front pour définir le nombre de pages.</t>
+  </si>
+  <si>
+    <t>Renvoi les informations des 10 publications les plus récentes de l'utilisateur en fonction de la page transmise, ainsi que le nombre total de publications dans la base données, ce nombre sera utilisé côté front pour définir le nombre de pages.</t>
   </si>
 </sst>
 </file>
@@ -2753,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CA63B0-5CB0-4A22-9658-45308F0E7DFF}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" activeCellId="1" sqref="D4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,7 +3146,8 @@
     <col min="2" max="2" width="45.140625" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" customWidth="1"/>
     <col min="4" max="4" width="48.28515625" customWidth="1"/>
-    <col min="5" max="5" width="69" customWidth="1"/>
+    <col min="5" max="5" width="97" customWidth="1"/>
+    <col min="6" max="6" width="92.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2783,45 +3167,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3"/>
@@ -2832,11 +3216,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2849,11 +3233,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
@@ -2864,11 +3248,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2878,14 +3262,14 @@
         <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="3"/>
@@ -2896,11 +3280,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -2913,11 +3297,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2930,11 +3314,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="3"/>
@@ -2945,93 +3329,93 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:5" ht="280.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="270.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="237.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>50</v>
+      <c r="E16" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="357" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>40</v>
       </c>
     </row>
